--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -3187,8 +3187,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -4024,9 +4024,9 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+      <selection pane="bottomLeft" activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
